--- a/analysis_results/analysis_report.xlsx
+++ b/analysis_results/analysis_report.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-11-30 16:35:48</t>
+          <t>2024-11-30 17:26:07</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202.22</v>
+        <v>268.12</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>508</v>
+        <v>812</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.65</v>
+        <v>186.33</v>
       </c>
     </row>
     <row r="15">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2863.22</v>
+        <v>2493.74</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1450</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="18">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -758,88 +758,88 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRISM+ C270 | 27" 100Hz 1500R Curved Productivity Monitor Gaming Monitor [1920 x 1080]</t>
+          <t>PRISM+ X240 (1200R) 24 180Hz 1ms Curved FHD [1920 x 1080] FreeSync G-Sync Ready Gaming Monitor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$158.00</t>
+          <t>$233.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7.9K sold</t>
+          <t>10.2K sold</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>2690</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRISM+ W270 | 27" FHD [1920 x 1080] IPS Professional Monitor Productivity Monitor</t>
+          <t>PRISM+ C270 | 27" 100Hz 1500R Curved Productivity Monitor Gaming Monitor [1920 x 1080]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$138.00</t>
+          <t>$158.00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6.8K sold</t>
+          <t>7.9K sold</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1841</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[NEW LAUNCH] Samsung 27" Essential Monitor S3 (S33GC) (Black) / LS27C330GAEXXS</t>
+          <t>PRISM+ C240 24 75Hz 1500R Curved Productivity Monitor Gaming Monitor [1920 x 1080]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$128.00</t>
+          <t>$138.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.6K sold</t>
+          <t>7.7K sold</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1984</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRISM+ X340 PRO | 34" 180Hz 1ms HDR400 Curved Ultrawide WQHD [3440 x 1440] Adaptive-Sync Gaming Monitor</t>
+          <t>PRISM+ W270 | 27" FHD [1920 x 1080] IPS Professional Monitor Productivity Monitor</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$508.00</t>
+          <t>$138.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3.0K sold</t>
+          <t>6.8K sold</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>1526</t>
         </is>
       </c>
     </row>
@@ -878,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.11</v>
+        <v>-0.26</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.08</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="33">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.11</v>
+        <v>-0.26</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.08</v>
+        <v>-0.23</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
